--- a/IMPORTACION-VOLUMEN-2024-05.xlsx
+++ b/IMPORTACION-VOLUMEN-2024-05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Base de datos Estadistica\03 Presentación de datos\Web Estadisticas\ESTADISTICAS DE COMERCIALIZACION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristopher\Documents\S8\Data Science\Lab2DataScience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5800C966-3FBA-4832-B7EC-9396A234864F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA6C010-308F-4E42-92C2-84C9C293113B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D85B23B-69FC-4D82-83D7-8DBEB235528F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D85B23B-69FC-4D82-83D7-8DBEB235528F}"/>
   </bookViews>
   <sheets>
     <sheet name="IMPORTACION" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm/yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -464,9 +464,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -504,7 +504,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -610,7 +610,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -752,7 +752,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -763,13 +763,13 @@
   <dimension ref="A1:BQ291"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="E279" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="L287" sqref="L287"/>
+      <selection pane="bottomRight" activeCell="U7" sqref="U7:U288"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
@@ -800,7 +800,7 @@
     <col min="70" max="16384" width="14.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" ht="18" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -871,7 +871,7 @@
       <c r="BP1" s="2"/>
       <c r="BQ1" s="2"/>
     </row>
-    <row r="2" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" ht="18" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -942,7 +942,7 @@
       <c r="BP2" s="2"/>
       <c r="BQ2" s="2"/>
     </row>
-    <row r="3" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" ht="18" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1013,7 +1013,7 @@
       <c r="BP3" s="2"/>
       <c r="BQ3" s="2"/>
     </row>
-    <row r="4" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" ht="18" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1084,7 +1084,7 @@
       <c r="BP4" s="2"/>
       <c r="BQ4" s="2"/>
     </row>
-    <row r="5" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:69" ht="18" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1155,7 +1155,7 @@
       <c r="BP5" s="6"/>
       <c r="BQ5" s="6"/>
     </row>
-    <row r="6" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:69" ht="18" customHeight="1">
       <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +1228,7 @@
       <c r="BP6" s="8"/>
       <c r="BQ6" s="8"/>
     </row>
-    <row r="7" spans="1:69" s="18" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:69" s="18" customFormat="1" ht="64.5" customHeight="1">
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
@@ -1349,7 +1349,7 @@
       <c r="BP7" s="17"/>
       <c r="BQ7" s="17"/>
     </row>
-    <row r="8" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:69" ht="24.95" customHeight="1">
       <c r="A8" s="10">
         <v>36892</v>
       </c>
@@ -1470,7 +1470,7 @@
       <c r="BP8" s="14"/>
       <c r="BQ8" s="14"/>
     </row>
-    <row r="9" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:69" ht="24.95" customHeight="1">
       <c r="A9" s="10">
         <v>36923</v>
       </c>
@@ -1591,7 +1591,7 @@
       <c r="BP9" s="14"/>
       <c r="BQ9" s="14"/>
     </row>
-    <row r="10" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:69" ht="24.95" customHeight="1">
       <c r="A10" s="10">
         <v>36951</v>
       </c>
@@ -1712,7 +1712,7 @@
       <c r="BP10" s="14"/>
       <c r="BQ10" s="14"/>
     </row>
-    <row r="11" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:69" ht="24.95" customHeight="1">
       <c r="A11" s="10">
         <v>36982</v>
       </c>
@@ -1833,7 +1833,7 @@
       <c r="BP11" s="14"/>
       <c r="BQ11" s="14"/>
     </row>
-    <row r="12" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:69" ht="24.95" customHeight="1">
       <c r="A12" s="10">
         <v>37012</v>
       </c>
@@ -1954,7 +1954,7 @@
       <c r="BP12" s="14"/>
       <c r="BQ12" s="14"/>
     </row>
-    <row r="13" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:69" ht="24.95" customHeight="1">
       <c r="A13" s="10">
         <v>37043</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="BP13" s="14"/>
       <c r="BQ13" s="14"/>
     </row>
-    <row r="14" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:69" ht="24.95" customHeight="1">
       <c r="A14" s="10">
         <v>37073</v>
       </c>
@@ -2196,7 +2196,7 @@
       <c r="BP14" s="14"/>
       <c r="BQ14" s="14"/>
     </row>
-    <row r="15" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:69" ht="24.95" customHeight="1">
       <c r="A15" s="10">
         <v>37104</v>
       </c>
@@ -2317,7 +2317,7 @@
       <c r="BP15" s="14"/>
       <c r="BQ15" s="14"/>
     </row>
-    <row r="16" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:69" ht="24.95" customHeight="1">
       <c r="A16" s="10">
         <v>37135</v>
       </c>
@@ -2438,7 +2438,7 @@
       <c r="BP16" s="14"/>
       <c r="BQ16" s="14"/>
     </row>
-    <row r="17" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:69" ht="24.95" customHeight="1">
       <c r="A17" s="10">
         <v>37165</v>
       </c>
@@ -2559,7 +2559,7 @@
       <c r="BP17" s="14"/>
       <c r="BQ17" s="14"/>
     </row>
-    <row r="18" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:69" ht="24.95" customHeight="1">
       <c r="A18" s="10">
         <v>37196</v>
       </c>
@@ -2680,7 +2680,7 @@
       <c r="BP18" s="14"/>
       <c r="BQ18" s="14"/>
     </row>
-    <row r="19" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:69" ht="24.95" customHeight="1">
       <c r="A19" s="10">
         <v>37226</v>
       </c>
@@ -2801,7 +2801,7 @@
       <c r="BP19" s="14"/>
       <c r="BQ19" s="14"/>
     </row>
-    <row r="20" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:69" ht="24.95" customHeight="1">
       <c r="A20" s="10">
         <v>37257</v>
       </c>
@@ -2922,7 +2922,7 @@
       <c r="BP20" s="14"/>
       <c r="BQ20" s="14"/>
     </row>
-    <row r="21" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:69" ht="24.95" customHeight="1">
       <c r="A21" s="10">
         <v>37288</v>
       </c>
@@ -3043,7 +3043,7 @@
       <c r="BP21" s="14"/>
       <c r="BQ21" s="14"/>
     </row>
-    <row r="22" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:69" ht="24.95" customHeight="1">
       <c r="A22" s="10">
         <v>37316</v>
       </c>
@@ -3164,7 +3164,7 @@
       <c r="BP22" s="14"/>
       <c r="BQ22" s="14"/>
     </row>
-    <row r="23" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:69" ht="24.95" customHeight="1">
       <c r="A23" s="10">
         <v>37347</v>
       </c>
@@ -3285,7 +3285,7 @@
       <c r="BP23" s="14"/>
       <c r="BQ23" s="14"/>
     </row>
-    <row r="24" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:69" ht="24.95" customHeight="1">
       <c r="A24" s="10">
         <v>37377</v>
       </c>
@@ -3406,7 +3406,7 @@
       <c r="BP24" s="14"/>
       <c r="BQ24" s="14"/>
     </row>
-    <row r="25" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:69" ht="24.95" customHeight="1">
       <c r="A25" s="10">
         <v>37408</v>
       </c>
@@ -3527,7 +3527,7 @@
       <c r="BP25" s="14"/>
       <c r="BQ25" s="14"/>
     </row>
-    <row r="26" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:69" ht="24.95" customHeight="1">
       <c r="A26" s="10">
         <v>37438</v>
       </c>
@@ -3648,7 +3648,7 @@
       <c r="BP26" s="14"/>
       <c r="BQ26" s="14"/>
     </row>
-    <row r="27" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:69" ht="24.95" customHeight="1">
       <c r="A27" s="10">
         <v>37469</v>
       </c>
@@ -3769,7 +3769,7 @@
       <c r="BP27" s="14"/>
       <c r="BQ27" s="14"/>
     </row>
-    <row r="28" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:69" ht="24.95" customHeight="1">
       <c r="A28" s="10">
         <v>37500</v>
       </c>
@@ -3890,7 +3890,7 @@
       <c r="BP28" s="14"/>
       <c r="BQ28" s="14"/>
     </row>
-    <row r="29" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:69" ht="24.95" customHeight="1">
       <c r="A29" s="10">
         <v>37530</v>
       </c>
@@ -4011,7 +4011,7 @@
       <c r="BP29" s="14"/>
       <c r="BQ29" s="14"/>
     </row>
-    <row r="30" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:69" ht="24.95" customHeight="1">
       <c r="A30" s="10">
         <v>37561</v>
       </c>
@@ -4132,7 +4132,7 @@
       <c r="BP30" s="14"/>
       <c r="BQ30" s="14"/>
     </row>
-    <row r="31" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:69" ht="24.95" customHeight="1">
       <c r="A31" s="10">
         <v>37591</v>
       </c>
@@ -4253,7 +4253,7 @@
       <c r="BP31" s="14"/>
       <c r="BQ31" s="14"/>
     </row>
-    <row r="32" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:69" ht="24.95" customHeight="1">
       <c r="A32" s="10">
         <v>37622</v>
       </c>
@@ -4374,7 +4374,7 @@
       <c r="BP32" s="14"/>
       <c r="BQ32" s="14"/>
     </row>
-    <row r="33" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:69" ht="24.95" customHeight="1">
       <c r="A33" s="10">
         <v>37653</v>
       </c>
@@ -4495,7 +4495,7 @@
       <c r="BP33" s="14"/>
       <c r="BQ33" s="14"/>
     </row>
-    <row r="34" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:69" ht="24.95" customHeight="1">
       <c r="A34" s="10">
         <v>37681</v>
       </c>
@@ -4616,7 +4616,7 @@
       <c r="BP34" s="14"/>
       <c r="BQ34" s="14"/>
     </row>
-    <row r="35" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:69" ht="24.95" customHeight="1">
       <c r="A35" s="10">
         <v>37712</v>
       </c>
@@ -4737,7 +4737,7 @@
       <c r="BP35" s="14"/>
       <c r="BQ35" s="14"/>
     </row>
-    <row r="36" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:69" ht="24.95" customHeight="1">
       <c r="A36" s="10">
         <v>37742</v>
       </c>
@@ -4858,7 +4858,7 @@
       <c r="BP36" s="14"/>
       <c r="BQ36" s="14"/>
     </row>
-    <row r="37" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:69" ht="24.95" customHeight="1">
       <c r="A37" s="10">
         <v>37773</v>
       </c>
@@ -4979,7 +4979,7 @@
       <c r="BP37" s="14"/>
       <c r="BQ37" s="14"/>
     </row>
-    <row r="38" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:69" ht="24.95" customHeight="1">
       <c r="A38" s="10">
         <v>37803</v>
       </c>
@@ -5100,7 +5100,7 @@
       <c r="BP38" s="14"/>
       <c r="BQ38" s="14"/>
     </row>
-    <row r="39" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:69" ht="24.95" customHeight="1">
       <c r="A39" s="10">
         <v>37834</v>
       </c>
@@ -5221,7 +5221,7 @@
       <c r="BP39" s="14"/>
       <c r="BQ39" s="14"/>
     </row>
-    <row r="40" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:69" ht="24.95" customHeight="1">
       <c r="A40" s="10">
         <v>37865</v>
       </c>
@@ -5342,7 +5342,7 @@
       <c r="BP40" s="14"/>
       <c r="BQ40" s="14"/>
     </row>
-    <row r="41" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:69" ht="24.95" customHeight="1">
       <c r="A41" s="10">
         <v>37895</v>
       </c>
@@ -5463,7 +5463,7 @@
       <c r="BP41" s="14"/>
       <c r="BQ41" s="14"/>
     </row>
-    <row r="42" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:69" ht="24.95" customHeight="1">
       <c r="A42" s="10">
         <v>37926</v>
       </c>
@@ -5584,7 +5584,7 @@
       <c r="BP42" s="14"/>
       <c r="BQ42" s="14"/>
     </row>
-    <row r="43" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:69" ht="24.95" customHeight="1">
       <c r="A43" s="10">
         <v>37956</v>
       </c>
@@ -5705,7 +5705,7 @@
       <c r="BP43" s="14"/>
       <c r="BQ43" s="14"/>
     </row>
-    <row r="44" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:69" ht="24.95" customHeight="1">
       <c r="A44" s="10">
         <v>37987</v>
       </c>
@@ -5826,7 +5826,7 @@
       <c r="BP44" s="14"/>
       <c r="BQ44" s="14"/>
     </row>
-    <row r="45" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:69" ht="24.95" customHeight="1">
       <c r="A45" s="10">
         <v>38018</v>
       </c>
@@ -5947,7 +5947,7 @@
       <c r="BP45" s="14"/>
       <c r="BQ45" s="14"/>
     </row>
-    <row r="46" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:69" ht="24.95" customHeight="1">
       <c r="A46" s="10">
         <v>38047</v>
       </c>
@@ -6068,7 +6068,7 @@
       <c r="BP46" s="14"/>
       <c r="BQ46" s="14"/>
     </row>
-    <row r="47" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:69" ht="24.95" customHeight="1">
       <c r="A47" s="10">
         <v>38078</v>
       </c>
@@ -6189,7 +6189,7 @@
       <c r="BP47" s="14"/>
       <c r="BQ47" s="14"/>
     </row>
-    <row r="48" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:69" ht="24.95" customHeight="1">
       <c r="A48" s="10">
         <v>38108</v>
       </c>
@@ -6310,7 +6310,7 @@
       <c r="BP48" s="14"/>
       <c r="BQ48" s="14"/>
     </row>
-    <row r="49" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:69" ht="24.95" customHeight="1">
       <c r="A49" s="10">
         <v>38139</v>
       </c>
@@ -6431,7 +6431,7 @@
       <c r="BP49" s="14"/>
       <c r="BQ49" s="14"/>
     </row>
-    <row r="50" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:69" ht="24.95" customHeight="1">
       <c r="A50" s="10">
         <v>38169</v>
       </c>
@@ -6552,7 +6552,7 @@
       <c r="BP50" s="14"/>
       <c r="BQ50" s="14"/>
     </row>
-    <row r="51" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:69" ht="24.95" customHeight="1">
       <c r="A51" s="10">
         <v>38200</v>
       </c>
@@ -6673,7 +6673,7 @@
       <c r="BP51" s="14"/>
       <c r="BQ51" s="14"/>
     </row>
-    <row r="52" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:69" ht="24.95" customHeight="1">
       <c r="A52" s="10">
         <v>38231</v>
       </c>
@@ -6794,7 +6794,7 @@
       <c r="BP52" s="14"/>
       <c r="BQ52" s="14"/>
     </row>
-    <row r="53" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:69" ht="24.95" customHeight="1">
       <c r="A53" s="10">
         <v>38261</v>
       </c>
@@ -6915,7 +6915,7 @@
       <c r="BP53" s="14"/>
       <c r="BQ53" s="14"/>
     </row>
-    <row r="54" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:69" ht="24.95" customHeight="1">
       <c r="A54" s="10">
         <v>38292</v>
       </c>
@@ -7036,7 +7036,7 @@
       <c r="BP54" s="14"/>
       <c r="BQ54" s="14"/>
     </row>
-    <row r="55" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:69" ht="24.95" customHeight="1">
       <c r="A55" s="10">
         <v>38322</v>
       </c>
@@ -7157,7 +7157,7 @@
       <c r="BP55" s="14"/>
       <c r="BQ55" s="14"/>
     </row>
-    <row r="56" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:69" ht="24.95" customHeight="1">
       <c r="A56" s="10">
         <v>38353</v>
       </c>
@@ -7278,7 +7278,7 @@
       <c r="BP56" s="14"/>
       <c r="BQ56" s="14"/>
     </row>
-    <row r="57" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:69" ht="24.95" customHeight="1">
       <c r="A57" s="10">
         <v>38384</v>
       </c>
@@ -7399,7 +7399,7 @@
       <c r="BP57" s="14"/>
       <c r="BQ57" s="14"/>
     </row>
-    <row r="58" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:69" ht="24.95" customHeight="1">
       <c r="A58" s="10">
         <v>38412</v>
       </c>
@@ -7520,7 +7520,7 @@
       <c r="BP58" s="14"/>
       <c r="BQ58" s="14"/>
     </row>
-    <row r="59" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:69" ht="24.95" customHeight="1">
       <c r="A59" s="10">
         <v>38443</v>
       </c>
@@ -7641,7 +7641,7 @@
       <c r="BP59" s="14"/>
       <c r="BQ59" s="14"/>
     </row>
-    <row r="60" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:69" ht="24.95" customHeight="1">
       <c r="A60" s="10">
         <v>38473</v>
       </c>
@@ -7762,7 +7762,7 @@
       <c r="BP60" s="14"/>
       <c r="BQ60" s="14"/>
     </row>
-    <row r="61" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:69" ht="24.95" customHeight="1">
       <c r="A61" s="10">
         <v>38504</v>
       </c>
@@ -7883,7 +7883,7 @@
       <c r="BP61" s="14"/>
       <c r="BQ61" s="14"/>
     </row>
-    <row r="62" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:69" ht="24.95" customHeight="1">
       <c r="A62" s="10">
         <v>38534</v>
       </c>
@@ -8004,7 +8004,7 @@
       <c r="BP62" s="14"/>
       <c r="BQ62" s="14"/>
     </row>
-    <row r="63" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:69" ht="24.95" customHeight="1">
       <c r="A63" s="10">
         <v>38565</v>
       </c>
@@ -8125,7 +8125,7 @@
       <c r="BP63" s="14"/>
       <c r="BQ63" s="14"/>
     </row>
-    <row r="64" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:69" ht="24.95" customHeight="1">
       <c r="A64" s="10">
         <v>38596</v>
       </c>
@@ -8246,7 +8246,7 @@
       <c r="BP64" s="14"/>
       <c r="BQ64" s="14"/>
     </row>
-    <row r="65" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:69" ht="24.95" customHeight="1">
       <c r="A65" s="10">
         <v>38626</v>
       </c>
@@ -8367,7 +8367,7 @@
       <c r="BP65" s="14"/>
       <c r="BQ65" s="14"/>
     </row>
-    <row r="66" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:69" ht="24.95" customHeight="1">
       <c r="A66" s="10">
         <v>38657</v>
       </c>
@@ -8488,7 +8488,7 @@
       <c r="BP66" s="14"/>
       <c r="BQ66" s="14"/>
     </row>
-    <row r="67" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:69" ht="24.95" customHeight="1">
       <c r="A67" s="10">
         <v>38687</v>
       </c>
@@ -8609,7 +8609,7 @@
       <c r="BP67" s="14"/>
       <c r="BQ67" s="14"/>
     </row>
-    <row r="68" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:69" ht="24.95" customHeight="1">
       <c r="A68" s="10">
         <v>38718</v>
       </c>
@@ -8730,7 +8730,7 @@
       <c r="BP68" s="14"/>
       <c r="BQ68" s="14"/>
     </row>
-    <row r="69" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:69" ht="24.95" customHeight="1">
       <c r="A69" s="10">
         <v>38749</v>
       </c>
@@ -8851,7 +8851,7 @@
       <c r="BP69" s="14"/>
       <c r="BQ69" s="14"/>
     </row>
-    <row r="70" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:69" ht="24.95" customHeight="1">
       <c r="A70" s="10">
         <v>38777</v>
       </c>
@@ -8972,7 +8972,7 @@
       <c r="BP70" s="14"/>
       <c r="BQ70" s="14"/>
     </row>
-    <row r="71" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:69" ht="24.95" customHeight="1">
       <c r="A71" s="10">
         <v>38808</v>
       </c>
@@ -9093,7 +9093,7 @@
       <c r="BP71" s="14"/>
       <c r="BQ71" s="14"/>
     </row>
-    <row r="72" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:69" ht="24.95" customHeight="1">
       <c r="A72" s="10">
         <v>38838</v>
       </c>
@@ -9214,7 +9214,7 @@
       <c r="BP72" s="14"/>
       <c r="BQ72" s="14"/>
     </row>
-    <row r="73" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:69" ht="24.95" customHeight="1">
       <c r="A73" s="10">
         <v>38869</v>
       </c>
@@ -9335,7 +9335,7 @@
       <c r="BP73" s="14"/>
       <c r="BQ73" s="14"/>
     </row>
-    <row r="74" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:69" ht="24.95" customHeight="1">
       <c r="A74" s="10">
         <v>38899</v>
       </c>
@@ -9456,7 +9456,7 @@
       <c r="BP74" s="14"/>
       <c r="BQ74" s="14"/>
     </row>
-    <row r="75" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:69" ht="24.95" customHeight="1">
       <c r="A75" s="10">
         <v>38930</v>
       </c>
@@ -9577,7 +9577,7 @@
       <c r="BP75" s="14"/>
       <c r="BQ75" s="14"/>
     </row>
-    <row r="76" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:69" ht="24.95" customHeight="1">
       <c r="A76" s="10">
         <v>38961</v>
       </c>
@@ -9698,7 +9698,7 @@
       <c r="BP76" s="14"/>
       <c r="BQ76" s="14"/>
     </row>
-    <row r="77" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:69" ht="24.95" customHeight="1">
       <c r="A77" s="10">
         <v>38991</v>
       </c>
@@ -9819,7 +9819,7 @@
       <c r="BP77" s="14"/>
       <c r="BQ77" s="14"/>
     </row>
-    <row r="78" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:69" ht="24.95" customHeight="1">
       <c r="A78" s="10">
         <v>39022</v>
       </c>
@@ -9940,7 +9940,7 @@
       <c r="BP78" s="14"/>
       <c r="BQ78" s="14"/>
     </row>
-    <row r="79" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:69" ht="24.95" customHeight="1">
       <c r="A79" s="10">
         <v>39052</v>
       </c>
@@ -10061,7 +10061,7 @@
       <c r="BP79" s="14"/>
       <c r="BQ79" s="14"/>
     </row>
-    <row r="80" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:69" ht="24.95" customHeight="1">
       <c r="A80" s="10">
         <v>39083</v>
       </c>
@@ -10182,7 +10182,7 @@
       <c r="BP80" s="14"/>
       <c r="BQ80" s="14"/>
     </row>
-    <row r="81" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:69" ht="24.95" customHeight="1">
       <c r="A81" s="10">
         <v>39114</v>
       </c>
@@ -10303,7 +10303,7 @@
       <c r="BP81" s="14"/>
       <c r="BQ81" s="14"/>
     </row>
-    <row r="82" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:69" ht="24.95" customHeight="1">
       <c r="A82" s="10">
         <v>39142</v>
       </c>
@@ -10424,7 +10424,7 @@
       <c r="BP82" s="14"/>
       <c r="BQ82" s="14"/>
     </row>
-    <row r="83" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:69" ht="24.95" customHeight="1">
       <c r="A83" s="10">
         <v>39173</v>
       </c>
@@ -10545,7 +10545,7 @@
       <c r="BP83" s="14"/>
       <c r="BQ83" s="14"/>
     </row>
-    <row r="84" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:69" ht="24.95" customHeight="1">
       <c r="A84" s="10">
         <v>39203</v>
       </c>
@@ -10666,7 +10666,7 @@
       <c r="BP84" s="14"/>
       <c r="BQ84" s="14"/>
     </row>
-    <row r="85" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:69" ht="24.95" customHeight="1">
       <c r="A85" s="10">
         <v>39234</v>
       </c>
@@ -10787,7 +10787,7 @@
       <c r="BP85" s="14"/>
       <c r="BQ85" s="14"/>
     </row>
-    <row r="86" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:69" ht="24.95" customHeight="1">
       <c r="A86" s="10">
         <v>39264</v>
       </c>
@@ -10908,7 +10908,7 @@
       <c r="BP86" s="14"/>
       <c r="BQ86" s="14"/>
     </row>
-    <row r="87" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:69" ht="24.95" customHeight="1">
       <c r="A87" s="10">
         <v>39295</v>
       </c>
@@ -11029,7 +11029,7 @@
       <c r="BP87" s="14"/>
       <c r="BQ87" s="14"/>
     </row>
-    <row r="88" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:69" ht="24.95" customHeight="1">
       <c r="A88" s="10">
         <v>39326</v>
       </c>
@@ -11150,7 +11150,7 @@
       <c r="BP88" s="14"/>
       <c r="BQ88" s="14"/>
     </row>
-    <row r="89" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:69" ht="24.95" customHeight="1">
       <c r="A89" s="10">
         <v>39356</v>
       </c>
@@ -11271,7 +11271,7 @@
       <c r="BP89" s="14"/>
       <c r="BQ89" s="14"/>
     </row>
-    <row r="90" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:69" ht="24.95" customHeight="1">
       <c r="A90" s="10">
         <v>39387</v>
       </c>
@@ -11392,7 +11392,7 @@
       <c r="BP90" s="14"/>
       <c r="BQ90" s="14"/>
     </row>
-    <row r="91" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:69" ht="24.95" customHeight="1">
       <c r="A91" s="10">
         <v>39417</v>
       </c>
@@ -11513,7 +11513,7 @@
       <c r="BP91" s="14"/>
       <c r="BQ91" s="14"/>
     </row>
-    <row r="92" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:69" ht="24.95" customHeight="1">
       <c r="A92" s="10">
         <v>39448</v>
       </c>
@@ -11634,7 +11634,7 @@
       <c r="BP92" s="14"/>
       <c r="BQ92" s="14"/>
     </row>
-    <row r="93" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:69" ht="24.95" customHeight="1">
       <c r="A93" s="10">
         <v>39479</v>
       </c>
@@ -11755,7 +11755,7 @@
       <c r="BP93" s="14"/>
       <c r="BQ93" s="14"/>
     </row>
-    <row r="94" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:69" ht="24.95" customHeight="1">
       <c r="A94" s="10">
         <v>39508</v>
       </c>
@@ -11876,7 +11876,7 @@
       <c r="BP94" s="14"/>
       <c r="BQ94" s="14"/>
     </row>
-    <row r="95" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:69" ht="24.95" customHeight="1">
       <c r="A95" s="10">
         <v>39539</v>
       </c>
@@ -11997,7 +11997,7 @@
       <c r="BP95" s="14"/>
       <c r="BQ95" s="14"/>
     </row>
-    <row r="96" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:69" ht="24.95" customHeight="1">
       <c r="A96" s="10">
         <v>39569</v>
       </c>
@@ -12118,7 +12118,7 @@
       <c r="BP96" s="14"/>
       <c r="BQ96" s="14"/>
     </row>
-    <row r="97" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:69" ht="24.95" customHeight="1">
       <c r="A97" s="10">
         <v>39600</v>
       </c>
@@ -12239,7 +12239,7 @@
       <c r="BP97" s="14"/>
       <c r="BQ97" s="14"/>
     </row>
-    <row r="98" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:69" ht="24.95" customHeight="1">
       <c r="A98" s="10">
         <v>39630</v>
       </c>
@@ -12360,7 +12360,7 @@
       <c r="BP98" s="14"/>
       <c r="BQ98" s="14"/>
     </row>
-    <row r="99" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:69" ht="24.95" customHeight="1">
       <c r="A99" s="10">
         <v>39661</v>
       </c>
@@ -12481,7 +12481,7 @@
       <c r="BP99" s="14"/>
       <c r="BQ99" s="14"/>
     </row>
-    <row r="100" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:69" ht="24.95" customHeight="1">
       <c r="A100" s="10">
         <v>39692</v>
       </c>
@@ -12602,7 +12602,7 @@
       <c r="BP100" s="14"/>
       <c r="BQ100" s="14"/>
     </row>
-    <row r="101" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:69" ht="24.95" customHeight="1">
       <c r="A101" s="10">
         <v>39722</v>
       </c>
@@ -12723,7 +12723,7 @@
       <c r="BP101" s="14"/>
       <c r="BQ101" s="14"/>
     </row>
-    <row r="102" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:69" ht="24.95" customHeight="1">
       <c r="A102" s="10">
         <v>39753</v>
       </c>
@@ -12844,7 +12844,7 @@
       <c r="BP102" s="14"/>
       <c r="BQ102" s="14"/>
     </row>
-    <row r="103" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:69" ht="24.95" customHeight="1">
       <c r="A103" s="10">
         <v>39783</v>
       </c>
@@ -12965,7 +12965,7 @@
       <c r="BP103" s="14"/>
       <c r="BQ103" s="14"/>
     </row>
-    <row r="104" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:69" ht="24.95" customHeight="1">
       <c r="A104" s="10">
         <v>39814</v>
       </c>
@@ -13086,7 +13086,7 @@
       <c r="BP104" s="14"/>
       <c r="BQ104" s="14"/>
     </row>
-    <row r="105" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:69" ht="24.95" customHeight="1">
       <c r="A105" s="10">
         <v>39845</v>
       </c>
@@ -13207,7 +13207,7 @@
       <c r="BP105" s="14"/>
       <c r="BQ105" s="14"/>
     </row>
-    <row r="106" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:69" ht="24.95" customHeight="1">
       <c r="A106" s="10">
         <v>39873</v>
       </c>
@@ -13328,7 +13328,7 @@
       <c r="BP106" s="14"/>
       <c r="BQ106" s="14"/>
     </row>
-    <row r="107" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:69" ht="24.95" customHeight="1">
       <c r="A107" s="10">
         <v>39904</v>
       </c>
@@ -13449,7 +13449,7 @@
       <c r="BP107" s="14"/>
       <c r="BQ107" s="14"/>
     </row>
-    <row r="108" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:69" ht="24.95" customHeight="1">
       <c r="A108" s="10">
         <v>39934</v>
       </c>
@@ -13570,7 +13570,7 @@
       <c r="BP108" s="14"/>
       <c r="BQ108" s="14"/>
     </row>
-    <row r="109" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:69" ht="24.95" customHeight="1">
       <c r="A109" s="10">
         <v>39965</v>
       </c>
@@ -13691,7 +13691,7 @@
       <c r="BP109" s="14"/>
       <c r="BQ109" s="14"/>
     </row>
-    <row r="110" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:69" ht="24.95" customHeight="1">
       <c r="A110" s="10">
         <v>39995</v>
       </c>
@@ -13812,7 +13812,7 @@
       <c r="BP110" s="14"/>
       <c r="BQ110" s="14"/>
     </row>
-    <row r="111" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:69" ht="24.95" customHeight="1">
       <c r="A111" s="10">
         <v>40026</v>
       </c>
@@ -13933,7 +13933,7 @@
       <c r="BP111" s="14"/>
       <c r="BQ111" s="14"/>
     </row>
-    <row r="112" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:69" ht="24.95" customHeight="1">
       <c r="A112" s="10">
         <v>40057</v>
       </c>
@@ -14054,7 +14054,7 @@
       <c r="BP112" s="14"/>
       <c r="BQ112" s="14"/>
     </row>
-    <row r="113" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:69" ht="24.95" customHeight="1">
       <c r="A113" s="10">
         <v>40087</v>
       </c>
@@ -14175,7 +14175,7 @@
       <c r="BP113" s="14"/>
       <c r="BQ113" s="14"/>
     </row>
-    <row r="114" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:69" ht="24.95" customHeight="1">
       <c r="A114" s="10">
         <v>40118</v>
       </c>
@@ -14296,7 +14296,7 @@
       <c r="BP114" s="14"/>
       <c r="BQ114" s="14"/>
     </row>
-    <row r="115" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:69" ht="24.95" customHeight="1">
       <c r="A115" s="10">
         <v>40148</v>
       </c>
@@ -14417,7 +14417,7 @@
       <c r="BP115" s="14"/>
       <c r="BQ115" s="14"/>
     </row>
-    <row r="116" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:69" ht="24.95" customHeight="1">
       <c r="A116" s="10">
         <v>40179</v>
       </c>
@@ -14538,7 +14538,7 @@
       <c r="BP116" s="14"/>
       <c r="BQ116" s="14"/>
     </row>
-    <row r="117" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:69" ht="24.95" customHeight="1">
       <c r="A117" s="10">
         <v>40210</v>
       </c>
@@ -14659,7 +14659,7 @@
       <c r="BP117" s="14"/>
       <c r="BQ117" s="14"/>
     </row>
-    <row r="118" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:69" ht="24.95" customHeight="1">
       <c r="A118" s="10">
         <v>40238</v>
       </c>
@@ -14780,7 +14780,7 @@
       <c r="BP118" s="14"/>
       <c r="BQ118" s="14"/>
     </row>
-    <row r="119" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:69" ht="24.95" customHeight="1">
       <c r="A119" s="10">
         <v>40269</v>
       </c>
@@ -14901,7 +14901,7 @@
       <c r="BP119" s="14"/>
       <c r="BQ119" s="14"/>
     </row>
-    <row r="120" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:69" ht="24.95" customHeight="1">
       <c r="A120" s="10">
         <v>40299</v>
       </c>
@@ -15022,7 +15022,7 @@
       <c r="BP120" s="14"/>
       <c r="BQ120" s="14"/>
     </row>
-    <row r="121" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:69" ht="24.95" customHeight="1">
       <c r="A121" s="10">
         <v>40330</v>
       </c>
@@ -15143,7 +15143,7 @@
       <c r="BP121" s="14"/>
       <c r="BQ121" s="14"/>
     </row>
-    <row r="122" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:69" ht="24.95" customHeight="1">
       <c r="A122" s="10">
         <v>40360</v>
       </c>
@@ -15264,7 +15264,7 @@
       <c r="BP122" s="14"/>
       <c r="BQ122" s="14"/>
     </row>
-    <row r="123" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:69" ht="24.95" customHeight="1">
       <c r="A123" s="10">
         <v>40391</v>
       </c>
@@ -15385,7 +15385,7 @@
       <c r="BP123" s="14"/>
       <c r="BQ123" s="14"/>
     </row>
-    <row r="124" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:69" ht="24.95" customHeight="1">
       <c r="A124" s="10">
         <v>40422</v>
       </c>
@@ -15506,7 +15506,7 @@
       <c r="BP124" s="14"/>
       <c r="BQ124" s="14"/>
     </row>
-    <row r="125" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:69" ht="24.95" customHeight="1">
       <c r="A125" s="10">
         <v>40452</v>
       </c>
@@ -15627,7 +15627,7 @@
       <c r="BP125" s="14"/>
       <c r="BQ125" s="14"/>
     </row>
-    <row r="126" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:69" ht="24.95" customHeight="1">
       <c r="A126" s="10">
         <v>40483</v>
       </c>
@@ -15748,7 +15748,7 @@
       <c r="BP126" s="14"/>
       <c r="BQ126" s="14"/>
     </row>
-    <row r="127" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:69" ht="24.95" customHeight="1">
       <c r="A127" s="10">
         <v>40513</v>
       </c>
@@ -15869,7 +15869,7 @@
       <c r="BP127" s="14"/>
       <c r="BQ127" s="14"/>
     </row>
-    <row r="128" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:69" ht="24.95" customHeight="1">
       <c r="A128" s="10">
         <v>40544</v>
       </c>
@@ -15990,7 +15990,7 @@
       <c r="BP128" s="14"/>
       <c r="BQ128" s="14"/>
     </row>
-    <row r="129" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:69" ht="24.95" customHeight="1">
       <c r="A129" s="10">
         <v>40575</v>
       </c>
@@ -16111,7 +16111,7 @@
       <c r="BP129" s="14"/>
       <c r="BQ129" s="14"/>
     </row>
-    <row r="130" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:69" ht="24.95" customHeight="1">
       <c r="A130" s="10">
         <v>40603</v>
       </c>
@@ -16232,7 +16232,7 @@
       <c r="BP130" s="14"/>
       <c r="BQ130" s="14"/>
     </row>
-    <row r="131" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:69" ht="24.95" customHeight="1">
       <c r="A131" s="10">
         <v>40634</v>
       </c>
@@ -16353,7 +16353,7 @@
       <c r="BP131" s="14"/>
       <c r="BQ131" s="14"/>
     </row>
-    <row r="132" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:69" ht="24.95" customHeight="1">
       <c r="A132" s="10">
         <v>40664</v>
       </c>
@@ -16474,7 +16474,7 @@
       <c r="BP132" s="14"/>
       <c r="BQ132" s="14"/>
     </row>
-    <row r="133" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:69" ht="24.95" customHeight="1">
       <c r="A133" s="10">
         <v>40695</v>
       </c>
@@ -16595,7 +16595,7 @@
       <c r="BP133" s="14"/>
       <c r="BQ133" s="14"/>
     </row>
-    <row r="134" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:69" ht="24.95" customHeight="1">
       <c r="A134" s="10">
         <v>40725</v>
       </c>
@@ -16716,7 +16716,7 @@
       <c r="BP134" s="14"/>
       <c r="BQ134" s="14"/>
     </row>
-    <row r="135" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:69" ht="24.95" customHeight="1">
       <c r="A135" s="10">
         <v>40756</v>
       </c>
@@ -16837,7 +16837,7 @@
       <c r="BP135" s="14"/>
       <c r="BQ135" s="14"/>
     </row>
-    <row r="136" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:69" ht="24.95" customHeight="1">
       <c r="A136" s="10">
         <v>40787</v>
       </c>
@@ -16958,7 +16958,7 @@
       <c r="BP136" s="14"/>
       <c r="BQ136" s="14"/>
     </row>
-    <row r="137" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:69" ht="24.95" customHeight="1">
       <c r="A137" s="10">
         <v>40817</v>
       </c>
@@ -17079,7 +17079,7 @@
       <c r="BP137" s="14"/>
       <c r="BQ137" s="14"/>
     </row>
-    <row r="138" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:69" ht="24.95" customHeight="1">
       <c r="A138" s="10">
         <v>40848</v>
       </c>
@@ -17200,7 +17200,7 @@
       <c r="BP138" s="14"/>
       <c r="BQ138" s="14"/>
     </row>
-    <row r="139" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:69" ht="24.95" customHeight="1">
       <c r="A139" s="10">
         <v>40878</v>
       </c>
@@ -17321,7 +17321,7 @@
       <c r="BP139" s="14"/>
       <c r="BQ139" s="14"/>
     </row>
-    <row r="140" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:69" ht="24.95" customHeight="1">
       <c r="A140" s="10">
         <v>40909</v>
       </c>
@@ -17442,7 +17442,7 @@
       <c r="BP140" s="14"/>
       <c r="BQ140" s="14"/>
     </row>
-    <row r="141" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:69" ht="24.95" customHeight="1">
       <c r="A141" s="10">
         <v>40940</v>
       </c>
@@ -17563,7 +17563,7 @@
       <c r="BP141" s="14"/>
       <c r="BQ141" s="14"/>
     </row>
-    <row r="142" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:69" ht="24.95" customHeight="1">
       <c r="A142" s="10">
         <v>40969</v>
       </c>
@@ -17684,7 +17684,7 @@
       <c r="BP142" s="14"/>
       <c r="BQ142" s="14"/>
     </row>
-    <row r="143" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:69" ht="24.95" customHeight="1">
       <c r="A143" s="10">
         <v>41000</v>
       </c>
@@ -17805,7 +17805,7 @@
       <c r="BP143" s="14"/>
       <c r="BQ143" s="14"/>
     </row>
-    <row r="144" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:69" ht="24.95" customHeight="1">
       <c r="A144" s="10">
         <v>41030</v>
       </c>
@@ -17926,7 +17926,7 @@
       <c r="BP144" s="14"/>
       <c r="BQ144" s="14"/>
     </row>
-    <row r="145" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:69" ht="24.95" customHeight="1">
       <c r="A145" s="10">
         <v>41061</v>
       </c>
@@ -18047,7 +18047,7 @@
       <c r="BP145" s="14"/>
       <c r="BQ145" s="14"/>
     </row>
-    <row r="146" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:69" ht="24.95" customHeight="1">
       <c r="A146" s="10">
         <v>41091</v>
       </c>
@@ -18168,7 +18168,7 @@
       <c r="BP146" s="14"/>
       <c r="BQ146" s="14"/>
     </row>
-    <row r="147" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:69" ht="24.95" customHeight="1">
       <c r="A147" s="10">
         <v>41122</v>
       </c>
@@ -18289,7 +18289,7 @@
       <c r="BP147" s="14"/>
       <c r="BQ147" s="14"/>
     </row>
-    <row r="148" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:69" ht="24.95" customHeight="1">
       <c r="A148" s="10">
         <v>41153</v>
       </c>
@@ -18410,7 +18410,7 @@
       <c r="BP148" s="14"/>
       <c r="BQ148" s="14"/>
     </row>
-    <row r="149" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:69" ht="24.95" customHeight="1">
       <c r="A149" s="10">
         <v>41183</v>
       </c>
@@ -18531,7 +18531,7 @@
       <c r="BP149" s="14"/>
       <c r="BQ149" s="14"/>
     </row>
-    <row r="150" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:69" ht="24.95" customHeight="1">
       <c r="A150" s="10">
         <v>41214</v>
       </c>
@@ -18652,7 +18652,7 @@
       <c r="BP150" s="14"/>
       <c r="BQ150" s="14"/>
     </row>
-    <row r="151" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:69" ht="24.95" customHeight="1">
       <c r="A151" s="10">
         <v>41244</v>
       </c>
@@ -18773,7 +18773,7 @@
       <c r="BP151" s="14"/>
       <c r="BQ151" s="14"/>
     </row>
-    <row r="152" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:69" ht="24.95" customHeight="1">
       <c r="A152" s="10">
         <v>41275</v>
       </c>
@@ -18894,7 +18894,7 @@
       <c r="BP152" s="14"/>
       <c r="BQ152" s="14"/>
     </row>
-    <row r="153" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:69" ht="24.95" customHeight="1">
       <c r="A153" s="10">
         <v>41306</v>
       </c>
@@ -19015,7 +19015,7 @@
       <c r="BP153" s="14"/>
       <c r="BQ153" s="14"/>
     </row>
-    <row r="154" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:69" ht="24.95" customHeight="1">
       <c r="A154" s="10">
         <v>41334</v>
       </c>
@@ -19136,7 +19136,7 @@
       <c r="BP154" s="14"/>
       <c r="BQ154" s="14"/>
     </row>
-    <row r="155" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:69" ht="24.95" customHeight="1">
       <c r="A155" s="10">
         <v>41365</v>
       </c>
@@ -19257,7 +19257,7 @@
       <c r="BP155" s="14"/>
       <c r="BQ155" s="14"/>
     </row>
-    <row r="156" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:69" ht="24.95" customHeight="1">
       <c r="A156" s="10">
         <v>41395</v>
       </c>
@@ -19378,7 +19378,7 @@
       <c r="BP156" s="14"/>
       <c r="BQ156" s="14"/>
     </row>
-    <row r="157" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:69" ht="24.95" customHeight="1">
       <c r="A157" s="10">
         <v>41426</v>
       </c>
@@ -19499,7 +19499,7 @@
       <c r="BP157" s="14"/>
       <c r="BQ157" s="14"/>
     </row>
-    <row r="158" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:69" ht="24.95" customHeight="1">
       <c r="A158" s="10">
         <v>41456</v>
       </c>
@@ -19620,7 +19620,7 @@
       <c r="BP158" s="14"/>
       <c r="BQ158" s="14"/>
     </row>
-    <row r="159" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:69" ht="24.95" customHeight="1">
       <c r="A159" s="10">
         <v>41487</v>
       </c>
@@ -19741,7 +19741,7 @@
       <c r="BP159" s="14"/>
       <c r="BQ159" s="14"/>
     </row>
-    <row r="160" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:69" ht="24.95" customHeight="1">
       <c r="A160" s="10">
         <v>41518</v>
       </c>
@@ -19862,7 +19862,7 @@
       <c r="BP160" s="14"/>
       <c r="BQ160" s="14"/>
     </row>
-    <row r="161" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:69" ht="24.95" customHeight="1">
       <c r="A161" s="10">
         <v>41548</v>
       </c>
@@ -19983,7 +19983,7 @@
       <c r="BP161" s="14"/>
       <c r="BQ161" s="14"/>
     </row>
-    <row r="162" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:69" ht="24.95" customHeight="1">
       <c r="A162" s="10">
         <v>41579</v>
       </c>
@@ -20104,7 +20104,7 @@
       <c r="BP162" s="14"/>
       <c r="BQ162" s="14"/>
     </row>
-    <row r="163" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:69" ht="24.95" customHeight="1">
       <c r="A163" s="10">
         <v>41609</v>
       </c>
@@ -20225,7 +20225,7 @@
       <c r="BP163" s="14"/>
       <c r="BQ163" s="14"/>
     </row>
-    <row r="164" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:69" ht="24.95" customHeight="1">
       <c r="A164" s="10">
         <v>41640</v>
       </c>
@@ -20346,7 +20346,7 @@
       <c r="BP164" s="14"/>
       <c r="BQ164" s="14"/>
     </row>
-    <row r="165" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:69" ht="24.95" customHeight="1">
       <c r="A165" s="10">
         <v>41671</v>
       </c>
@@ -20467,7 +20467,7 @@
       <c r="BP165" s="14"/>
       <c r="BQ165" s="14"/>
     </row>
-    <row r="166" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:69" ht="24.95" customHeight="1">
       <c r="A166" s="10">
         <v>41699</v>
       </c>
@@ -20588,7 +20588,7 @@
       <c r="BP166" s="14"/>
       <c r="BQ166" s="14"/>
     </row>
-    <row r="167" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:69" ht="24.95" customHeight="1">
       <c r="A167" s="10">
         <v>41730</v>
       </c>
@@ -20709,7 +20709,7 @@
       <c r="BP167" s="14"/>
       <c r="BQ167" s="14"/>
     </row>
-    <row r="168" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:69" ht="24.95" customHeight="1">
       <c r="A168" s="10">
         <v>41760</v>
       </c>
@@ -20830,7 +20830,7 @@
       <c r="BP168" s="14"/>
       <c r="BQ168" s="14"/>
     </row>
-    <row r="169" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:69" ht="24.95" customHeight="1">
       <c r="A169" s="10">
         <v>41791</v>
       </c>
@@ -20951,7 +20951,7 @@
       <c r="BP169" s="14"/>
       <c r="BQ169" s="14"/>
     </row>
-    <row r="170" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:69" ht="24.95" customHeight="1">
       <c r="A170" s="10">
         <v>41821</v>
       </c>
@@ -21072,7 +21072,7 @@
       <c r="BP170" s="14"/>
       <c r="BQ170" s="14"/>
     </row>
-    <row r="171" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:69" ht="24.95" customHeight="1">
       <c r="A171" s="10">
         <v>41852</v>
       </c>
@@ -21193,7 +21193,7 @@
       <c r="BP171" s="14"/>
       <c r="BQ171" s="14"/>
     </row>
-    <row r="172" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:69" ht="24.95" customHeight="1">
       <c r="A172" s="10">
         <v>41883</v>
       </c>
@@ -21314,7 +21314,7 @@
       <c r="BP172" s="14"/>
       <c r="BQ172" s="14"/>
     </row>
-    <row r="173" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:69" ht="24.95" customHeight="1">
       <c r="A173" s="10">
         <v>41913</v>
       </c>
@@ -21435,7 +21435,7 @@
       <c r="BP173" s="14"/>
       <c r="BQ173" s="14"/>
     </row>
-    <row r="174" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:69" ht="24.95" customHeight="1">
       <c r="A174" s="10">
         <v>41944</v>
       </c>
@@ -21556,7 +21556,7 @@
       <c r="BP174" s="14"/>
       <c r="BQ174" s="14"/>
     </row>
-    <row r="175" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:69" ht="24.95" customHeight="1">
       <c r="A175" s="10">
         <v>41974</v>
       </c>
@@ -21677,7 +21677,7 @@
       <c r="BP175" s="14"/>
       <c r="BQ175" s="14"/>
     </row>
-    <row r="176" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:69" ht="24.95" customHeight="1">
       <c r="A176" s="10">
         <v>42005</v>
       </c>
@@ -21798,7 +21798,7 @@
       <c r="BP176" s="14"/>
       <c r="BQ176" s="14"/>
     </row>
-    <row r="177" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:69" ht="24.95" customHeight="1">
       <c r="A177" s="10">
         <v>42036</v>
       </c>
@@ -21919,7 +21919,7 @@
       <c r="BP177" s="14"/>
       <c r="BQ177" s="14"/>
     </row>
-    <row r="178" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:69" ht="24.95" customHeight="1">
       <c r="A178" s="10">
         <v>42064</v>
       </c>
@@ -22040,7 +22040,7 @@
       <c r="BP178" s="14"/>
       <c r="BQ178" s="14"/>
     </row>
-    <row r="179" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:69" ht="24.95" customHeight="1">
       <c r="A179" s="10">
         <v>42095</v>
       </c>
@@ -22161,7 +22161,7 @@
       <c r="BP179" s="14"/>
       <c r="BQ179" s="14"/>
     </row>
-    <row r="180" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:69" ht="24.95" customHeight="1">
       <c r="A180" s="10">
         <v>42125</v>
       </c>
@@ -22282,7 +22282,7 @@
       <c r="BP180" s="14"/>
       <c r="BQ180" s="14"/>
     </row>
-    <row r="181" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:69" ht="24.95" customHeight="1">
       <c r="A181" s="10">
         <v>42156</v>
       </c>
@@ -22403,7 +22403,7 @@
       <c r="BP181" s="14"/>
       <c r="BQ181" s="14"/>
     </row>
-    <row r="182" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:69" ht="24.95" customHeight="1">
       <c r="A182" s="10">
         <v>42186</v>
       </c>
@@ -22524,7 +22524,7 @@
       <c r="BP182" s="14"/>
       <c r="BQ182" s="14"/>
     </row>
-    <row r="183" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:69" ht="24.95" customHeight="1">
       <c r="A183" s="10">
         <v>42217</v>
       </c>
@@ -22645,7 +22645,7 @@
       <c r="BP183" s="14"/>
       <c r="BQ183" s="14"/>
     </row>
-    <row r="184" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:69" ht="24.95" customHeight="1">
       <c r="A184" s="10">
         <v>42248</v>
       </c>
@@ -22766,7 +22766,7 @@
       <c r="BP184" s="14"/>
       <c r="BQ184" s="14"/>
     </row>
-    <row r="185" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:69" ht="24.95" customHeight="1">
       <c r="A185" s="10">
         <v>42278</v>
       </c>
@@ -22887,7 +22887,7 @@
       <c r="BP185" s="14"/>
       <c r="BQ185" s="14"/>
     </row>
-    <row r="186" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:69" ht="24.95" customHeight="1">
       <c r="A186" s="10">
         <v>42309</v>
       </c>
@@ -23008,7 +23008,7 @@
       <c r="BP186" s="14"/>
       <c r="BQ186" s="14"/>
     </row>
-    <row r="187" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:69" ht="24.95" customHeight="1">
       <c r="A187" s="10">
         <v>42339</v>
       </c>
@@ -23129,7 +23129,7 @@
       <c r="BP187" s="14"/>
       <c r="BQ187" s="14"/>
     </row>
-    <row r="188" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:69" ht="24.95" customHeight="1">
       <c r="A188" s="10">
         <v>42370</v>
       </c>
@@ -23250,7 +23250,7 @@
       <c r="BP188" s="14"/>
       <c r="BQ188" s="14"/>
     </row>
-    <row r="189" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:69" ht="24.95" customHeight="1">
       <c r="A189" s="10">
         <v>42401</v>
       </c>
@@ -23371,7 +23371,7 @@
       <c r="BP189" s="14"/>
       <c r="BQ189" s="14"/>
     </row>
-    <row r="190" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:69" ht="24.95" customHeight="1">
       <c r="A190" s="10">
         <v>42430</v>
       </c>
@@ -23492,7 +23492,7 @@
       <c r="BP190" s="14"/>
       <c r="BQ190" s="14"/>
     </row>
-    <row r="191" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:69" ht="24.95" customHeight="1">
       <c r="A191" s="10">
         <v>42461</v>
       </c>
@@ -23613,7 +23613,7 @@
       <c r="BP191" s="14"/>
       <c r="BQ191" s="14"/>
     </row>
-    <row r="192" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:69" ht="24.95" customHeight="1">
       <c r="A192" s="10">
         <v>42491</v>
       </c>
@@ -23734,7 +23734,7 @@
       <c r="BP192" s="14"/>
       <c r="BQ192" s="14"/>
     </row>
-    <row r="193" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:69" ht="24.95" customHeight="1">
       <c r="A193" s="10">
         <v>42522</v>
       </c>
@@ -23855,7 +23855,7 @@
       <c r="BP193" s="14"/>
       <c r="BQ193" s="14"/>
     </row>
-    <row r="194" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:69" ht="24.95" customHeight="1">
       <c r="A194" s="10">
         <v>42552</v>
       </c>
@@ -23976,7 +23976,7 @@
       <c r="BP194" s="14"/>
       <c r="BQ194" s="14"/>
     </row>
-    <row r="195" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:69" ht="24.95" customHeight="1">
       <c r="A195" s="10">
         <v>42583</v>
       </c>
@@ -24097,7 +24097,7 @@
       <c r="BP195" s="14"/>
       <c r="BQ195" s="14"/>
     </row>
-    <row r="196" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:69" ht="24.95" customHeight="1">
       <c r="A196" s="10">
         <v>42614</v>
       </c>
@@ -24218,7 +24218,7 @@
       <c r="BP196" s="14"/>
       <c r="BQ196" s="14"/>
     </row>
-    <row r="197" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:69" ht="24.95" customHeight="1">
       <c r="A197" s="10">
         <v>42644</v>
       </c>
@@ -24339,7 +24339,7 @@
       <c r="BP197" s="14"/>
       <c r="BQ197" s="14"/>
     </row>
-    <row r="198" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:69" ht="24.95" customHeight="1">
       <c r="A198" s="10">
         <v>42675</v>
       </c>
@@ -24460,7 +24460,7 @@
       <c r="BP198" s="14"/>
       <c r="BQ198" s="14"/>
     </row>
-    <row r="199" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:69" ht="24.95" customHeight="1">
       <c r="A199" s="10">
         <v>42705</v>
       </c>
@@ -24581,7 +24581,7 @@
       <c r="BP199" s="14"/>
       <c r="BQ199" s="14"/>
     </row>
-    <row r="200" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:69" ht="24.95" customHeight="1">
       <c r="A200" s="10">
         <v>42736</v>
       </c>
@@ -24702,7 +24702,7 @@
       <c r="BP200" s="14"/>
       <c r="BQ200" s="14"/>
     </row>
-    <row r="201" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:69" ht="24.95" customHeight="1">
       <c r="A201" s="10">
         <v>42767</v>
       </c>
@@ -24823,7 +24823,7 @@
       <c r="BP201" s="14"/>
       <c r="BQ201" s="14"/>
     </row>
-    <row r="202" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:69" ht="24.95" customHeight="1">
       <c r="A202" s="10">
         <v>42795</v>
       </c>
@@ -24944,7 +24944,7 @@
       <c r="BP202" s="14"/>
       <c r="BQ202" s="14"/>
     </row>
-    <row r="203" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:69" ht="24.95" customHeight="1">
       <c r="A203" s="10">
         <v>42826</v>
       </c>
@@ -25065,7 +25065,7 @@
       <c r="BP203" s="14"/>
       <c r="BQ203" s="14"/>
     </row>
-    <row r="204" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:69" ht="24.95" customHeight="1">
       <c r="A204" s="10">
         <v>42856</v>
       </c>
@@ -25186,7 +25186,7 @@
       <c r="BP204" s="14"/>
       <c r="BQ204" s="14"/>
     </row>
-    <row r="205" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:69" ht="24.95" customHeight="1">
       <c r="A205" s="10">
         <v>42887</v>
       </c>
@@ -25307,7 +25307,7 @@
       <c r="BP205" s="14"/>
       <c r="BQ205" s="14"/>
     </row>
-    <row r="206" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:69" ht="24.95" customHeight="1">
       <c r="A206" s="10">
         <v>42917</v>
       </c>
@@ -25428,7 +25428,7 @@
       <c r="BP206" s="14"/>
       <c r="BQ206" s="14"/>
     </row>
-    <row r="207" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:69" ht="24.95" customHeight="1">
       <c r="A207" s="10">
         <v>42948</v>
       </c>
@@ -25549,7 +25549,7 @@
       <c r="BP207" s="14"/>
       <c r="BQ207" s="14"/>
     </row>
-    <row r="208" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:69" ht="24.95" customHeight="1">
       <c r="A208" s="10">
         <v>42979</v>
       </c>
@@ -25670,7 +25670,7 @@
       <c r="BP208" s="14"/>
       <c r="BQ208" s="14"/>
     </row>
-    <row r="209" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:69" ht="24.95" customHeight="1">
       <c r="A209" s="10">
         <v>43009</v>
       </c>
@@ -25791,7 +25791,7 @@
       <c r="BP209" s="14"/>
       <c r="BQ209" s="14"/>
     </row>
-    <row r="210" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:69" ht="24.95" customHeight="1">
       <c r="A210" s="10">
         <v>43040</v>
       </c>
@@ -25912,7 +25912,7 @@
       <c r="BP210" s="14"/>
       <c r="BQ210" s="14"/>
     </row>
-    <row r="211" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:69" ht="24.95" customHeight="1">
       <c r="A211" s="10">
         <v>43070</v>
       </c>
@@ -26033,7 +26033,7 @@
       <c r="BP211" s="14"/>
       <c r="BQ211" s="14"/>
     </row>
-    <row r="212" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:69" ht="24.95" customHeight="1">
       <c r="A212" s="10">
         <v>43101</v>
       </c>
@@ -26154,7 +26154,7 @@
       <c r="BP212" s="14"/>
       <c r="BQ212" s="14"/>
     </row>
-    <row r="213" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:69" ht="24.95" customHeight="1">
       <c r="A213" s="10">
         <v>43132</v>
       </c>
@@ -26275,7 +26275,7 @@
       <c r="BP213" s="14"/>
       <c r="BQ213" s="14"/>
     </row>
-    <row r="214" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:69" ht="24.95" customHeight="1">
       <c r="A214" s="10">
         <v>43160</v>
       </c>
@@ -26396,7 +26396,7 @@
       <c r="BP214" s="14"/>
       <c r="BQ214" s="14"/>
     </row>
-    <row r="215" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:69" ht="24.95" customHeight="1">
       <c r="A215" s="10">
         <v>43191</v>
       </c>
@@ -26517,7 +26517,7 @@
       <c r="BP215" s="14"/>
       <c r="BQ215" s="14"/>
     </row>
-    <row r="216" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:69" ht="24.95" customHeight="1">
       <c r="A216" s="10">
         <v>43221</v>
       </c>
@@ -26638,7 +26638,7 @@
       <c r="BP216" s="14"/>
       <c r="BQ216" s="14"/>
     </row>
-    <row r="217" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:69" ht="24.95" customHeight="1">
       <c r="A217" s="10">
         <v>43252</v>
       </c>
@@ -26759,7 +26759,7 @@
       <c r="BP217" s="14"/>
       <c r="BQ217" s="14"/>
     </row>
-    <row r="218" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:69" ht="24.95" customHeight="1">
       <c r="A218" s="10">
         <v>43282</v>
       </c>
@@ -26880,7 +26880,7 @@
       <c r="BP218" s="14"/>
       <c r="BQ218" s="14"/>
     </row>
-    <row r="219" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:69" ht="24.95" customHeight="1">
       <c r="A219" s="10">
         <v>43313</v>
       </c>
@@ -27001,7 +27001,7 @@
       <c r="BP219" s="14"/>
       <c r="BQ219" s="14"/>
     </row>
-    <row r="220" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:69" ht="24.95" customHeight="1">
       <c r="A220" s="10">
         <v>43344</v>
       </c>
@@ -27122,7 +27122,7 @@
       <c r="BP220" s="14"/>
       <c r="BQ220" s="14"/>
     </row>
-    <row r="221" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:69" ht="24.95" customHeight="1">
       <c r="A221" s="10">
         <v>43374</v>
       </c>
@@ -27243,7 +27243,7 @@
       <c r="BP221" s="14"/>
       <c r="BQ221" s="14"/>
     </row>
-    <row r="222" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:69" ht="24.95" customHeight="1">
       <c r="A222" s="10">
         <v>43405</v>
       </c>
@@ -27364,7 +27364,7 @@
       <c r="BP222" s="14"/>
       <c r="BQ222" s="14"/>
     </row>
-    <row r="223" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:69" ht="24.95" customHeight="1">
       <c r="A223" s="10">
         <v>43435</v>
       </c>
@@ -27485,7 +27485,7 @@
       <c r="BP223" s="14"/>
       <c r="BQ223" s="14"/>
     </row>
-    <row r="224" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:69" ht="24.95" customHeight="1">
       <c r="A224" s="10">
         <v>43466</v>
       </c>
@@ -27606,7 +27606,7 @@
       <c r="BP224" s="14"/>
       <c r="BQ224" s="14"/>
     </row>
-    <row r="225" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:69" ht="24.95" customHeight="1">
       <c r="A225" s="10">
         <v>43497</v>
       </c>
@@ -27727,7 +27727,7 @@
       <c r="BP225" s="14"/>
       <c r="BQ225" s="14"/>
     </row>
-    <row r="226" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:69" ht="24.95" customHeight="1">
       <c r="A226" s="10">
         <v>43525</v>
       </c>
@@ -27848,7 +27848,7 @@
       <c r="BP226" s="14"/>
       <c r="BQ226" s="14"/>
     </row>
-    <row r="227" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:69" ht="24.95" customHeight="1">
       <c r="A227" s="10">
         <v>43556</v>
       </c>
@@ -27969,7 +27969,7 @@
       <c r="BP227" s="14"/>
       <c r="BQ227" s="14"/>
     </row>
-    <row r="228" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:69" ht="24.95" customHeight="1">
       <c r="A228" s="10">
         <v>43586</v>
       </c>
@@ -28090,7 +28090,7 @@
       <c r="BP228" s="14"/>
       <c r="BQ228" s="14"/>
     </row>
-    <row r="229" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:69" ht="24.95" customHeight="1">
       <c r="A229" s="10">
         <v>43617</v>
       </c>
@@ -28211,7 +28211,7 @@
       <c r="BP229" s="14"/>
       <c r="BQ229" s="14"/>
     </row>
-    <row r="230" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:69" ht="24.95" customHeight="1">
       <c r="A230" s="10">
         <v>43647</v>
       </c>
@@ -28332,7 +28332,7 @@
       <c r="BP230" s="14"/>
       <c r="BQ230" s="14"/>
     </row>
-    <row r="231" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:69" ht="24.95" customHeight="1">
       <c r="A231" s="10">
         <v>43678</v>
       </c>
@@ -28453,7 +28453,7 @@
       <c r="BP231" s="14"/>
       <c r="BQ231" s="14"/>
     </row>
-    <row r="232" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:69" ht="24.95" customHeight="1">
       <c r="A232" s="10">
         <v>43709</v>
       </c>
@@ -28574,7 +28574,7 @@
       <c r="BP232" s="14"/>
       <c r="BQ232" s="14"/>
     </row>
-    <row r="233" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:69" ht="24.95" customHeight="1">
       <c r="A233" s="10">
         <v>43739</v>
       </c>
@@ -28695,7 +28695,7 @@
       <c r="BP233" s="14"/>
       <c r="BQ233" s="14"/>
     </row>
-    <row r="234" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:69" ht="24.95" customHeight="1">
       <c r="A234" s="10">
         <v>43770</v>
       </c>
@@ -28816,7 +28816,7 @@
       <c r="BP234" s="14"/>
       <c r="BQ234" s="14"/>
     </row>
-    <row r="235" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:69" ht="24.95" customHeight="1">
       <c r="A235" s="10">
         <v>43800</v>
       </c>
@@ -28937,7 +28937,7 @@
       <c r="BP235" s="14"/>
       <c r="BQ235" s="14"/>
     </row>
-    <row r="236" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:69" ht="24.95" customHeight="1">
       <c r="A236" s="10">
         <v>43831</v>
       </c>
@@ -29058,7 +29058,7 @@
       <c r="BP236" s="14"/>
       <c r="BQ236" s="14"/>
     </row>
-    <row r="237" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:69" ht="24.95" customHeight="1">
       <c r="A237" s="10">
         <v>43862</v>
       </c>
@@ -29179,7 +29179,7 @@
       <c r="BP237" s="14"/>
       <c r="BQ237" s="14"/>
     </row>
-    <row r="238" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:69" ht="24.95" customHeight="1">
       <c r="A238" s="10">
         <v>43891</v>
       </c>
@@ -29300,7 +29300,7 @@
       <c r="BP238" s="14"/>
       <c r="BQ238" s="14"/>
     </row>
-    <row r="239" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:69" ht="24.95" customHeight="1">
       <c r="A239" s="10">
         <v>43922</v>
       </c>
@@ -29421,7 +29421,7 @@
       <c r="BP239" s="14"/>
       <c r="BQ239" s="14"/>
     </row>
-    <row r="240" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:69" ht="24.95" customHeight="1">
       <c r="A240" s="10">
         <v>43952</v>
       </c>
@@ -29542,7 +29542,7 @@
       <c r="BP240" s="14"/>
       <c r="BQ240" s="14"/>
     </row>
-    <row r="241" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:69" ht="24.95" customHeight="1">
       <c r="A241" s="10">
         <v>43983</v>
       </c>
@@ -29663,7 +29663,7 @@
       <c r="BP241" s="14"/>
       <c r="BQ241" s="14"/>
     </row>
-    <row r="242" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:69" ht="24.95" customHeight="1">
       <c r="A242" s="10">
         <v>44013</v>
       </c>
@@ -29784,7 +29784,7 @@
       <c r="BP242" s="14"/>
       <c r="BQ242" s="14"/>
     </row>
-    <row r="243" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:69" ht="24.95" customHeight="1">
       <c r="A243" s="10">
         <v>44044</v>
       </c>
@@ -29905,7 +29905,7 @@
       <c r="BP243" s="14"/>
       <c r="BQ243" s="14"/>
     </row>
-    <row r="244" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:69" ht="24.95" customHeight="1">
       <c r="A244" s="10">
         <v>44075</v>
       </c>
@@ -30026,7 +30026,7 @@
       <c r="BP244" s="14"/>
       <c r="BQ244" s="14"/>
     </row>
-    <row r="245" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:69" ht="24.95" customHeight="1">
       <c r="A245" s="10">
         <v>44105</v>
       </c>
@@ -30147,7 +30147,7 @@
       <c r="BP245" s="14"/>
       <c r="BQ245" s="14"/>
     </row>
-    <row r="246" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:69" ht="24.95" customHeight="1">
       <c r="A246" s="10">
         <v>44136</v>
       </c>
@@ -30268,7 +30268,7 @@
       <c r="BP246" s="14"/>
       <c r="BQ246" s="14"/>
     </row>
-    <row r="247" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:69" ht="24.95" customHeight="1">
       <c r="A247" s="10">
         <v>44166</v>
       </c>
@@ -30389,7 +30389,7 @@
       <c r="BP247" s="14"/>
       <c r="BQ247" s="14"/>
     </row>
-    <row r="248" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:69" ht="24.95" customHeight="1">
       <c r="A248" s="10">
         <v>44197</v>
       </c>
@@ -30510,7 +30510,7 @@
       <c r="BP248" s="14"/>
       <c r="BQ248" s="14"/>
     </row>
-    <row r="249" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:69" ht="24.95" customHeight="1">
       <c r="A249" s="10">
         <v>44228</v>
       </c>
@@ -30631,7 +30631,7 @@
       <c r="BP249" s="14"/>
       <c r="BQ249" s="14"/>
     </row>
-    <row r="250" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:69" ht="24.95" customHeight="1">
       <c r="A250" s="10">
         <v>44256</v>
       </c>
@@ -30752,7 +30752,7 @@
       <c r="BP250" s="14"/>
       <c r="BQ250" s="14"/>
     </row>
-    <row r="251" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:69" ht="24.95" customHeight="1">
       <c r="A251" s="10">
         <v>44287</v>
       </c>
@@ -30873,7 +30873,7 @@
       <c r="BP251" s="14"/>
       <c r="BQ251" s="14"/>
     </row>
-    <row r="252" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:69" ht="24.95" customHeight="1">
       <c r="A252" s="10">
         <v>44317</v>
       </c>
@@ -30994,7 +30994,7 @@
       <c r="BP252" s="14"/>
       <c r="BQ252" s="14"/>
     </row>
-    <row r="253" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:69" ht="24.95" customHeight="1">
       <c r="A253" s="10">
         <v>44348</v>
       </c>
@@ -31115,7 +31115,7 @@
       <c r="BP253" s="14"/>
       <c r="BQ253" s="14"/>
     </row>
-    <row r="254" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:69" ht="24.95" customHeight="1">
       <c r="A254" s="10">
         <v>44378</v>
       </c>
@@ -31236,7 +31236,7 @@
       <c r="BP254" s="14"/>
       <c r="BQ254" s="14"/>
     </row>
-    <row r="255" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:69" ht="24.95" customHeight="1">
       <c r="A255" s="10">
         <v>44409</v>
       </c>
@@ -31357,7 +31357,7 @@
       <c r="BP255" s="14"/>
       <c r="BQ255" s="14"/>
     </row>
-    <row r="256" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:69" ht="24.95" customHeight="1">
       <c r="A256" s="10">
         <v>44440</v>
       </c>
@@ -31478,7 +31478,7 @@
       <c r="BP256" s="14"/>
       <c r="BQ256" s="14"/>
     </row>
-    <row r="257" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:69" ht="24.95" customHeight="1">
       <c r="A257" s="10">
         <v>44470</v>
       </c>
@@ -31599,7 +31599,7 @@
       <c r="BP257" s="14"/>
       <c r="BQ257" s="14"/>
     </row>
-    <row r="258" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:69" ht="24.95" customHeight="1">
       <c r="A258" s="10">
         <v>44501</v>
       </c>
@@ -31720,7 +31720,7 @@
       <c r="BP258" s="14"/>
       <c r="BQ258" s="14"/>
     </row>
-    <row r="259" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:69" ht="24.95" customHeight="1">
       <c r="A259" s="10">
         <v>44531</v>
       </c>
@@ -31842,7 +31842,7 @@
       <c r="BP259" s="14"/>
       <c r="BQ259" s="14"/>
     </row>
-    <row r="260" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:69" ht="24.95" customHeight="1">
       <c r="A260" s="10">
         <v>44562</v>
       </c>
@@ -31964,7 +31964,7 @@
       <c r="BP260" s="14"/>
       <c r="BQ260" s="14"/>
     </row>
-    <row r="261" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:69" ht="24.95" customHeight="1">
       <c r="A261" s="10">
         <v>44593</v>
       </c>
@@ -32086,7 +32086,7 @@
       <c r="BP261" s="14"/>
       <c r="BQ261" s="14"/>
     </row>
-    <row r="262" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:69" ht="24.95" customHeight="1">
       <c r="A262" s="10">
         <v>44621</v>
       </c>
@@ -32208,7 +32208,7 @@
       <c r="BP262" s="14"/>
       <c r="BQ262" s="14"/>
     </row>
-    <row r="263" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:69" ht="24.95" customHeight="1">
       <c r="A263" s="10">
         <v>44652</v>
       </c>
@@ -32330,7 +32330,7 @@
       <c r="BP263" s="14"/>
       <c r="BQ263" s="14"/>
     </row>
-    <row r="264" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:69" ht="24.95" customHeight="1">
       <c r="A264" s="10">
         <v>44682</v>
       </c>
@@ -32452,7 +32452,7 @@
       <c r="BP264" s="14"/>
       <c r="BQ264" s="14"/>
     </row>
-    <row r="265" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:69" ht="24.95" customHeight="1">
       <c r="A265" s="10">
         <v>44713</v>
       </c>
@@ -32574,7 +32574,7 @@
       <c r="BP265" s="14"/>
       <c r="BQ265" s="14"/>
     </row>
-    <row r="266" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:69" ht="24.95" customHeight="1">
       <c r="A266" s="10">
         <v>44743</v>
       </c>
@@ -32696,7 +32696,7 @@
       <c r="BP266" s="14"/>
       <c r="BQ266" s="14"/>
     </row>
-    <row r="267" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:69" ht="24.95" customHeight="1">
       <c r="A267" s="10">
         <v>44774</v>
       </c>
@@ -32818,7 +32818,7 @@
       <c r="BP267" s="14"/>
       <c r="BQ267" s="14"/>
     </row>
-    <row r="268" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:69" ht="24.95" customHeight="1">
       <c r="A268" s="10">
         <v>44805</v>
       </c>
@@ -32940,7 +32940,7 @@
       <c r="BP268" s="14"/>
       <c r="BQ268" s="14"/>
     </row>
-    <row r="269" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:69" ht="24.95" customHeight="1">
       <c r="A269" s="10">
         <v>44835</v>
       </c>
@@ -33062,7 +33062,7 @@
       <c r="BP269" s="14"/>
       <c r="BQ269" s="14"/>
     </row>
-    <row r="270" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:69" ht="24.95" customHeight="1">
       <c r="A270" s="10">
         <v>44866</v>
       </c>
@@ -33184,7 +33184,7 @@
       <c r="BP270" s="14"/>
       <c r="BQ270" s="14"/>
     </row>
-    <row r="271" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:69" ht="24.95" customHeight="1">
       <c r="A271" s="10">
         <v>44896</v>
       </c>
@@ -33306,7 +33306,7 @@
       <c r="BP271" s="14"/>
       <c r="BQ271" s="14"/>
     </row>
-    <row r="272" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:69" ht="24.95" customHeight="1">
       <c r="A272" s="10">
         <v>44927</v>
       </c>
@@ -33428,7 +33428,7 @@
       <c r="BP272" s="14"/>
       <c r="BQ272" s="14"/>
     </row>
-    <row r="273" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:69" ht="24.95" customHeight="1">
       <c r="A273" s="10">
         <v>44958</v>
       </c>
@@ -33550,7 +33550,7 @@
       <c r="BP273" s="14"/>
       <c r="BQ273" s="14"/>
     </row>
-    <row r="274" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:69" ht="24.95" customHeight="1">
       <c r="A274" s="10">
         <v>44986</v>
       </c>
@@ -33670,7 +33670,7 @@
       <c r="BP274" s="14"/>
       <c r="BQ274" s="14"/>
     </row>
-    <row r="275" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:69" ht="24.95" customHeight="1">
       <c r="A275" s="10">
         <v>45017</v>
       </c>
@@ -33792,7 +33792,7 @@
       <c r="BP275" s="14"/>
       <c r="BQ275" s="14"/>
     </row>
-    <row r="276" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:69" ht="24.95" customHeight="1">
       <c r="A276" s="10">
         <v>45047</v>
       </c>
@@ -33914,7 +33914,7 @@
       <c r="BP276" s="14"/>
       <c r="BQ276" s="14"/>
     </row>
-    <row r="277" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:69" ht="24.95" customHeight="1">
       <c r="A277" s="10">
         <v>45078</v>
       </c>
@@ -34036,7 +34036,7 @@
       <c r="BP277" s="14"/>
       <c r="BQ277" s="14"/>
     </row>
-    <row r="278" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:69" ht="24.95" customHeight="1">
       <c r="A278" s="10">
         <v>45108</v>
       </c>
@@ -34158,7 +34158,7 @@
       <c r="BP278" s="14"/>
       <c r="BQ278" s="14"/>
     </row>
-    <row r="279" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:69" ht="24.95" customHeight="1">
       <c r="A279" s="10">
         <v>45139</v>
       </c>
@@ -34280,7 +34280,7 @@
       <c r="BP279" s="14"/>
       <c r="BQ279" s="14"/>
     </row>
-    <row r="280" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:69" ht="24.95" customHeight="1">
       <c r="A280" s="10">
         <v>45170</v>
       </c>
@@ -34402,7 +34402,7 @@
       <c r="BP280" s="14"/>
       <c r="BQ280" s="14"/>
     </row>
-    <row r="281" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:69" ht="24.95" customHeight="1">
       <c r="A281" s="10">
         <v>45200</v>
       </c>
@@ -34524,7 +34524,7 @@
       <c r="BP281" s="14"/>
       <c r="BQ281" s="14"/>
     </row>
-    <row r="282" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:69" ht="24.95" customHeight="1">
       <c r="A282" s="10">
         <v>45231</v>
       </c>
@@ -34646,7 +34646,7 @@
       <c r="BP282" s="14"/>
       <c r="BQ282" s="14"/>
     </row>
-    <row r="283" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:69" ht="24.95" customHeight="1">
       <c r="A283" s="10">
         <v>45261</v>
       </c>
@@ -34768,7 +34768,7 @@
       <c r="BP283" s="14"/>
       <c r="BQ283" s="14"/>
     </row>
-    <row r="284" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:69" ht="24.95" customHeight="1">
       <c r="A284" s="10">
         <v>45292</v>
       </c>
@@ -34890,7 +34890,7 @@
       <c r="BP284" s="14"/>
       <c r="BQ284" s="14"/>
     </row>
-    <row r="285" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:69" ht="24.95" customHeight="1">
       <c r="A285" s="10">
         <v>45323</v>
       </c>
@@ -35012,7 +35012,7 @@
       <c r="BP285" s="14"/>
       <c r="BQ285" s="14"/>
     </row>
-    <row r="286" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:69" ht="24.95" customHeight="1">
       <c r="A286" s="10">
         <v>45352</v>
       </c>
@@ -35134,7 +35134,7 @@
       <c r="BP286" s="14"/>
       <c r="BQ286" s="14"/>
     </row>
-    <row r="287" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:69" ht="24.95" customHeight="1">
       <c r="A287" s="10">
         <v>45383</v>
       </c>
@@ -35256,7 +35256,7 @@
       <c r="BP287" s="14"/>
       <c r="BQ287" s="14"/>
     </row>
-    <row r="288" spans="1:69" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:69" ht="24.95" customHeight="1">
       <c r="A288" s="10">
         <v>45413</v>
       </c>
@@ -35378,12 +35378,12 @@
       <c r="BP288" s="14"/>
       <c r="BQ288" s="14"/>
     </row>
-    <row r="290" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1" ht="15" customHeight="1">
       <c r="A290" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="291" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1" ht="15" customHeight="1">
       <c r="A291" s="4" t="s">
         <v>27</v>
       </c>
